--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H2">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I2">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J2">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>2.066766962717333</v>
+        <v>4.168254858605333</v>
       </c>
       <c r="R2">
-        <v>18.600902664456</v>
+        <v>37.51429372744799</v>
       </c>
       <c r="S2">
-        <v>1.140966817815706E-05</v>
+        <v>2.14361943499764E-05</v>
       </c>
       <c r="T2">
-        <v>1.174982244561822E-05</v>
+        <v>2.185802373428484E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H3">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I3">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J3">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>97.29988053326964</v>
+        <v>266.4307304203173</v>
       </c>
       <c r="R3">
-        <v>875.6989247994269</v>
+        <v>2397.876573782856</v>
       </c>
       <c r="S3">
-        <v>0.0005371478113813666</v>
+        <v>0.00137018035408877</v>
       </c>
       <c r="T3">
-        <v>0.0005531616969252586</v>
+        <v>0.001397143271373452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H4">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I4">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J4">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>61.44748835890967</v>
+        <v>196.5531542123146</v>
       </c>
       <c r="R4">
-        <v>553.0273952301869</v>
+        <v>1768.978387910832</v>
       </c>
       <c r="S4">
-        <v>0.0003392232724847436</v>
+        <v>0.001010819097372999</v>
       </c>
       <c r="T4">
-        <v>0.0003493364713925547</v>
+        <v>0.001030710370540735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H5">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I5">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J5">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>21.710735822302</v>
+        <v>41.889428227756</v>
       </c>
       <c r="R5">
-        <v>130.264414933812</v>
+        <v>251.336569366536</v>
       </c>
       <c r="S5">
-        <v>0.0001198549696722497</v>
+        <v>0.0002154258688970886</v>
       </c>
       <c r="T5">
-        <v>8.228545539240863E-05</v>
+        <v>0.0001464433993725409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H6">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I6">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J6">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>73.19071294485366</v>
+        <v>246.0051536250027</v>
       </c>
       <c r="R6">
-        <v>658.7164165036829</v>
+        <v>2214.046382625024</v>
       </c>
       <c r="S6">
-        <v>0.0004040522049595664</v>
+        <v>0.001265137200839443</v>
       </c>
       <c r="T6">
-        <v>0.0004160981365018357</v>
+        <v>0.001290033039988074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J7">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>1148.078563448227</v>
+        <v>845.5948980858683</v>
       </c>
       <c r="R7">
-        <v>10332.70707103404</v>
+        <v>7610.354082772815</v>
       </c>
       <c r="S7">
-        <v>0.006338012793748652</v>
+        <v>0.004348663215565015</v>
       </c>
       <c r="T7">
-        <v>0.006526966763781221</v>
+        <v>0.004434237823484567</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J8">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>54049.59005124099</v>
@@ -948,10 +948,10 @@
         <v>486446.3104611689</v>
       </c>
       <c r="S8">
-        <v>0.2983828843670274</v>
+        <v>0.2779622542712318</v>
       </c>
       <c r="T8">
-        <v>0.307278516551066</v>
+        <v>0.2834320986226079</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J9">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>34133.76807119359</v>
+        <v>39873.84410084486</v>
       </c>
       <c r="R9">
-        <v>307203.9126407423</v>
+        <v>358864.5969076037</v>
       </c>
       <c r="S9">
-        <v>0.1884368070459406</v>
+        <v>0.2050602711736204</v>
       </c>
       <c r="T9">
-        <v>0.1940546377367701</v>
+        <v>0.2090955232581578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J10">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>12060.20361458693</v>
+        <v>8497.917712492368</v>
       </c>
       <c r="R10">
-        <v>72361.22168752158</v>
+        <v>50987.50627495421</v>
       </c>
       <c r="S10">
-        <v>0.06657882764998835</v>
+        <v>0.0437024658602674</v>
       </c>
       <c r="T10">
-        <v>0.04570915305100129</v>
+        <v>0.02970830613011149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J11">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>40657.06975739555</v>
+        <v>49905.94622079675</v>
       </c>
       <c r="R11">
-        <v>365913.6278165599</v>
+        <v>449153.5159871707</v>
       </c>
       <c r="S11">
-        <v>0.2244489501700593</v>
+        <v>0.2566526277057863</v>
       </c>
       <c r="T11">
-        <v>0.2311404040349214</v>
+        <v>0.2617031333206691</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H12">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I12">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J12">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>152.6741165850444</v>
+        <v>159.0258878533978</v>
       </c>
       <c r="R12">
-        <v>1374.0670492654</v>
+        <v>1431.232990680581</v>
       </c>
       <c r="S12">
-        <v>0.000842843456012252</v>
+        <v>0.0008178266335287338</v>
       </c>
       <c r="T12">
-        <v>0.0008679709876711603</v>
+        <v>0.0008339201294011879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H13">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I13">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J13">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>7187.638264120546</v>
+        <v>10164.77756129738</v>
       </c>
       <c r="R13">
-        <v>64688.74437708492</v>
+        <v>91482.9980516764</v>
       </c>
       <c r="S13">
-        <v>0.03967963929054557</v>
+        <v>0.05227467002849137</v>
       </c>
       <c r="T13">
-        <v>0.04086260083028938</v>
+        <v>0.05330335037692596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H14">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I14">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J14">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>4539.186647938214</v>
+        <v>7498.831266151881</v>
       </c>
       <c r="R14">
-        <v>40852.67983144393</v>
+        <v>67489.48139536694</v>
       </c>
       <c r="S14">
-        <v>0.02505875814059029</v>
+        <v>0.03856443760559686</v>
       </c>
       <c r="T14">
-        <v>0.02580583013126546</v>
+        <v>0.03932332291451776</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H15">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I15">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J15">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>1603.793495771383</v>
+        <v>1598.151682553061</v>
       </c>
       <c r="R15">
-        <v>9622.7609746283</v>
+        <v>9588.910095318366</v>
       </c>
       <c r="S15">
-        <v>0.008853804973241529</v>
+        <v>0.008218856866974726</v>
       </c>
       <c r="T15">
-        <v>0.006078507851372241</v>
+        <v>0.005587060387492747</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H16">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I16">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J16">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>5406.67024519948</v>
+        <v>9385.507676183035</v>
       </c>
       <c r="R16">
-        <v>48660.03220679532</v>
+        <v>84469.56908564731</v>
       </c>
       <c r="S16">
-        <v>0.02984773540473807</v>
+        <v>0.04826709820885842</v>
       </c>
       <c r="T16">
-        <v>0.03073758026380331</v>
+        <v>0.04921691607239258</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H17">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I17">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J17">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>2.933991493934667</v>
+        <v>2.642968636885999</v>
       </c>
       <c r="R17">
-        <v>17.603948963608</v>
+        <v>15.857811821316</v>
       </c>
       <c r="S17">
-        <v>1.619721525803597E-05</v>
+        <v>1.359206461289579E-05</v>
       </c>
       <c r="T17">
-        <v>1.112006650405039E-05</v>
+        <v>9.239689534939501E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H18">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I18">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J18">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>138.1273394607268</v>
+        <v>168.935942808242</v>
       </c>
       <c r="R18">
-        <v>828.764036764361</v>
+        <v>1013.615656849452</v>
       </c>
       <c r="S18">
-        <v>0.0007625374016558132</v>
+        <v>0.0008687913348814876</v>
       </c>
       <c r="T18">
-        <v>0.00052351385612607</v>
+        <v>0.0005905918220352227</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H19">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I19">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J19">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>87.23112543450684</v>
+        <v>124.628613097324</v>
       </c>
       <c r="R19">
-        <v>523.3867526070411</v>
+        <v>747.7716785839439</v>
       </c>
       <c r="S19">
-        <v>0.0004815628534657592</v>
+        <v>0.0006409308601672539</v>
       </c>
       <c r="T19">
-        <v>0.0003306130634871151</v>
+        <v>0.0004356955569272757</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H20">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I20">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J20">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>30.820656309479</v>
+        <v>26.560862706003</v>
       </c>
       <c r="R20">
-        <v>123.282625237916</v>
+        <v>106.243450824012</v>
       </c>
       <c r="S20">
-        <v>0.0001701466434618409</v>
+        <v>0.0001365952501425081</v>
       </c>
       <c r="T20">
-        <v>7.787519688188038E-05</v>
+        <v>6.190365428696442E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H21">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I21">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J21">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>103.9018588398948</v>
+        <v>155.984681263168</v>
       </c>
       <c r="R21">
-        <v>623.4111530393691</v>
+        <v>935.9080875790079</v>
       </c>
       <c r="S21">
-        <v>0.0005735942918781068</v>
+        <v>0.0008021865400752329</v>
       </c>
       <c r="T21">
-        <v>0.0003937964996090117</v>
+        <v>0.0005453148429246127</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H22">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I22">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J22">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>158.2861156229173</v>
+        <v>62.03083821307588</v>
       </c>
       <c r="R22">
-        <v>1424.575040606256</v>
+        <v>558.2775439176829</v>
       </c>
       <c r="S22">
-        <v>0.0008738247170800599</v>
+        <v>0.0003190076299874684</v>
       </c>
       <c r="T22">
-        <v>0.0008998758871830484</v>
+        <v>0.0003252851804682261</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H23">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I23">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J23">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>7451.841653176044</v>
+        <v>3964.949863748045</v>
       </c>
       <c r="R23">
-        <v>67066.5748785844</v>
+        <v>35684.5487737324</v>
       </c>
       <c r="S23">
-        <v>0.04113818447490656</v>
+        <v>0.02039065238339426</v>
       </c>
       <c r="T23">
-        <v>0.04236462934484004</v>
+        <v>0.020791907205034</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H24">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I24">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J24">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>4706.038185518685</v>
+        <v>2925.050728134535</v>
       </c>
       <c r="R24">
-        <v>42354.34366966817</v>
+        <v>26325.45655321082</v>
       </c>
       <c r="S24">
-        <v>0.02597986860594508</v>
+        <v>0.01504273563368711</v>
       </c>
       <c r="T24">
-        <v>0.02675440148774357</v>
+        <v>0.01533875216568314</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H25">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I25">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J25">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>1662.745777641652</v>
+        <v>623.3871088447802</v>
       </c>
       <c r="R25">
-        <v>9976.474665849912</v>
+        <v>3740.322653068681</v>
       </c>
       <c r="S25">
-        <v>0.009179253360320737</v>
+        <v>0.003205909349059759</v>
       </c>
       <c r="T25">
-        <v>0.006301941796671031</v>
+        <v>0.002179330948321711</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H26">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I26">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J26">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>5605.408766782828</v>
+        <v>3660.9819700903</v>
       </c>
       <c r="R26">
-        <v>50448.67890104546</v>
+        <v>32948.8377308127</v>
       </c>
       <c r="S26">
-        <v>0.03094487921746004</v>
+        <v>0.01882742866852272</v>
       </c>
       <c r="T26">
-        <v>0.03186743301635497</v>
+        <v>0.01919792179401366</v>
       </c>
     </row>
   </sheetData>
